--- a/data/long_dif/P25A_N-Edad-long_dif.xlsx
+++ b/data/long_dif/P25A_N-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
